--- a/trust/ValueSet-Participants.xlsx
+++ b/trust/ValueSet-Participants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-02T15:21:33+02:00</t>
+    <t>2025-10-27T08:38:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,7 +85,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ValueSet of GDHCN Trust Network Participants</t>
+    <t>ValueSet of GDHCN Trust Network Participants for Production environment</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -118,112 +118,109 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
     <t>BRA</t>
   </si>
   <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>FRO</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>ISL</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>OMN</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>SMR</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
     <t>SVN</t>
   </si>
   <si>
-    <t>OMN</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>FRO</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
     <t>ESP</t>
   </si>
   <si>
-    <t>PRT</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>SMR</t>
-  </si>
-  <si>
-    <t>UKR</t>
-  </si>
-  <si>
-    <t>MYS</t>
-  </si>
-  <si>
-    <t>BEL</t>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>TGO</t>
   </si>
   <si>
     <t>TUR</t>
   </si>
   <si>
-    <t>IRL</t>
-  </si>
-  <si>
-    <t>ALB</t>
-  </si>
-  <si>
-    <t>LVA</t>
-  </si>
-  <si>
-    <t>TGO</t>
-  </si>
-  <si>
-    <t>SWE</t>
-  </si>
-  <si>
-    <t>MLT</t>
-  </si>
-  <si>
-    <t>LTU</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>SVK</t>
-  </si>
-  <si>
-    <t>IDN</t>
-  </si>
-  <si>
-    <t>CZE</t>
-  </si>
-  <si>
-    <t>NLD</t>
-  </si>
-  <si>
-    <t>EST</t>
-  </si>
-  <si>
-    <t>BEN</t>
-  </si>
-  <si>
-    <t>SGP</t>
-  </si>
-  <si>
-    <t>ISL</t>
-  </si>
-  <si>
-    <t>CYP</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>THA</t>
-  </si>
-  <si>
-    <t>MCO</t>
-  </si>
-  <si>
-    <t>NZL</t>
-  </si>
-  <si>
-    <t>http://smart.who.int/refmart/CodeSystem/REF_COUNTRY</t>
+    <t>http://smart.who.int/refmart/CodeSystems/REF_COUNTRY</t>
   </si>
 </sst>
 </file>
@@ -533,7 +530,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -757,24 +754,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
